--- a/src/main/webapp/WEB-INF/template/scholarshipLessonPayList.xlsx
+++ b/src/main/webapp/WEB-INF/template/scholarshipLessonPayList.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-15" yWindow="5820" windowWidth="28830" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>CODEMAKER 시험완료 회원 장학금 지급 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>회원 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,27 +50,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${countList}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODEMAKER 완강 회원 장학금 지급 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의 : ${scholarshipList[0].lesNm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인원 수 : ${count}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 지급액 : ${totalPay}</t>
+    <t>총 인원 수 ${count}
+총 지급 액 : ${totalPay}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,21 +126,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -196,6 +162,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -212,13 +193,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,14 +211,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -247,9 +228,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,44 +244,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -331,31 +309,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -383,23 +344,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,151 +355,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,72 +532,95 @@
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="4" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="8" t="s">
-        <v>10</v>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>